--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_176.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_176.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
   <si>
     <t>STR#</t>
   </si>
@@ -61,6 +61,15 @@
   </si>
   <si>
     <t>https://www.tripadvisor.com/Hotel_Review-g32655-d12862190-Reviews-H_Hotel_Los_Angeles_Curio_Collection_by_Hilton-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>209</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>224</t>
   </si>
   <si>
     <t>https://www.orbitz.com/Los-Angeles-Hotels-H-Hotel-Los-Angeles.h18952850.Hotel-Information</t>
@@ -532,11 +541,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +573,79 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="J1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="K1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="L1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="N1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="O1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="P1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="Q1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="R1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="S1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="T1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="U1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="V1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="W1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="X1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="Y1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_176.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_176.xlsx
@@ -3273,7 +3273,7 @@
         <v>66884</v>
       </c>
       <c r="B2" t="n">
-        <v>134175</v>
+        <v>165045</v>
       </c>
       <c r="C2" t="s">
         <v>44</v>
@@ -3334,7 +3334,7 @@
         <v>66884</v>
       </c>
       <c r="B3" t="n">
-        <v>134176</v>
+        <v>165046</v>
       </c>
       <c r="C3" t="s">
         <v>54</v>
@@ -3594,7 +3594,7 @@
         <v>66884</v>
       </c>
       <c r="B7" t="n">
-        <v>134177</v>
+        <v>165047</v>
       </c>
       <c r="C7" t="s">
         <v>79</v>
@@ -3655,7 +3655,7 @@
         <v>66884</v>
       </c>
       <c r="B8" t="n">
-        <v>134178</v>
+        <v>165048</v>
       </c>
       <c r="C8" t="s">
         <v>85</v>
@@ -3718,7 +3718,7 @@
         <v>66884</v>
       </c>
       <c r="B9" t="n">
-        <v>134179</v>
+        <v>165049</v>
       </c>
       <c r="C9" t="s">
         <v>92</v>
@@ -3789,7 +3789,7 @@
         <v>66884</v>
       </c>
       <c r="B10" t="n">
-        <v>134180</v>
+        <v>165050</v>
       </c>
       <c r="C10" t="s">
         <v>98</v>
@@ -3856,7 +3856,7 @@
         <v>66884</v>
       </c>
       <c r="B11" t="n">
-        <v>134181</v>
+        <v>165051</v>
       </c>
       <c r="C11" t="s">
         <v>105</v>
@@ -3927,7 +3927,7 @@
         <v>66884</v>
       </c>
       <c r="B12" t="n">
-        <v>134182</v>
+        <v>165052</v>
       </c>
       <c r="C12" t="s">
         <v>111</v>
@@ -3994,7 +3994,7 @@
         <v>66884</v>
       </c>
       <c r="B13" t="n">
-        <v>134183</v>
+        <v>165053</v>
       </c>
       <c r="C13" t="s">
         <v>117</v>
@@ -4126,7 +4126,7 @@
         <v>66884</v>
       </c>
       <c r="B15" t="n">
-        <v>134184</v>
+        <v>165054</v>
       </c>
       <c r="C15" t="s">
         <v>133</v>
@@ -4254,7 +4254,7 @@
         <v>66884</v>
       </c>
       <c r="B17" t="n">
-        <v>134185</v>
+        <v>165055</v>
       </c>
       <c r="C17" t="s">
         <v>145</v>
@@ -4321,7 +4321,7 @@
         <v>66884</v>
       </c>
       <c r="B18" t="n">
-        <v>134186</v>
+        <v>165056</v>
       </c>
       <c r="C18" t="s">
         <v>152</v>
@@ -4449,7 +4449,7 @@
         <v>66884</v>
       </c>
       <c r="B20" t="n">
-        <v>134187</v>
+        <v>165057</v>
       </c>
       <c r="C20" t="s">
         <v>163</v>
@@ -4581,7 +4581,7 @@
         <v>66884</v>
       </c>
       <c r="B22" t="n">
-        <v>134188</v>
+        <v>165058</v>
       </c>
       <c r="C22" t="s">
         <v>177</v>
@@ -4642,7 +4642,7 @@
         <v>66884</v>
       </c>
       <c r="B23" t="n">
-        <v>134189</v>
+        <v>165059</v>
       </c>
       <c r="C23" t="s">
         <v>183</v>
@@ -4709,7 +4709,7 @@
         <v>66884</v>
       </c>
       <c r="B24" t="n">
-        <v>134190</v>
+        <v>165060</v>
       </c>
       <c r="C24" t="s">
         <v>189</v>
@@ -4847,7 +4847,7 @@
         <v>66884</v>
       </c>
       <c r="B26" t="n">
-        <v>134191</v>
+        <v>165061</v>
       </c>
       <c r="C26" t="s">
         <v>202</v>
@@ -4918,7 +4918,7 @@
         <v>66884</v>
       </c>
       <c r="B27" t="n">
-        <v>134192</v>
+        <v>165062</v>
       </c>
       <c r="C27" t="s">
         <v>208</v>
@@ -5267,7 +5267,7 @@
         <v>66884</v>
       </c>
       <c r="B32" t="n">
-        <v>134193</v>
+        <v>165063</v>
       </c>
       <c r="C32" t="s">
         <v>244</v>
@@ -5472,7 +5472,7 @@
         <v>66884</v>
       </c>
       <c r="B35" t="n">
-        <v>134194</v>
+        <v>165064</v>
       </c>
       <c r="C35" t="s">
         <v>265</v>
@@ -5600,7 +5600,7 @@
         <v>66884</v>
       </c>
       <c r="B37" t="n">
-        <v>134195</v>
+        <v>165065</v>
       </c>
       <c r="C37" t="s">
         <v>277</v>
@@ -5667,7 +5667,7 @@
         <v>66884</v>
       </c>
       <c r="B38" t="n">
-        <v>134196</v>
+        <v>165066</v>
       </c>
       <c r="C38" t="s">
         <v>283</v>
@@ -5728,7 +5728,7 @@
         <v>66884</v>
       </c>
       <c r="B39" t="n">
-        <v>134197</v>
+        <v>165067</v>
       </c>
       <c r="C39" t="s">
         <v>289</v>
@@ -5795,7 +5795,7 @@
         <v>66884</v>
       </c>
       <c r="B40" t="n">
-        <v>134198</v>
+        <v>165068</v>
       </c>
       <c r="C40" t="s">
         <v>296</v>
@@ -5862,7 +5862,7 @@
         <v>66884</v>
       </c>
       <c r="B41" t="n">
-        <v>134199</v>
+        <v>165069</v>
       </c>
       <c r="C41" t="s">
         <v>301</v>
@@ -6165,7 +6165,7 @@
         <v>66884</v>
       </c>
       <c r="B46" t="n">
-        <v>134200</v>
+        <v>165070</v>
       </c>
       <c r="C46" t="s">
         <v>332</v>
@@ -6232,7 +6232,7 @@
         <v>66884</v>
       </c>
       <c r="B47" t="n">
-        <v>134201</v>
+        <v>165071</v>
       </c>
       <c r="C47" t="s">
         <v>338</v>
@@ -6299,7 +6299,7 @@
         <v>66884</v>
       </c>
       <c r="B48" t="n">
-        <v>134202</v>
+        <v>165072</v>
       </c>
       <c r="C48" t="s">
         <v>345</v>
@@ -6370,7 +6370,7 @@
         <v>66884</v>
       </c>
       <c r="B49" t="n">
-        <v>134203</v>
+        <v>165073</v>
       </c>
       <c r="C49" t="s">
         <v>350</v>
@@ -6431,7 +6431,7 @@
         <v>66884</v>
       </c>
       <c r="B50" t="n">
-        <v>134204</v>
+        <v>165074</v>
       </c>
       <c r="C50" t="s">
         <v>356</v>
@@ -6502,7 +6502,7 @@
         <v>66884</v>
       </c>
       <c r="B51" t="n">
-        <v>134205</v>
+        <v>165075</v>
       </c>
       <c r="C51" t="s">
         <v>362</v>
@@ -6620,7 +6620,7 @@
         <v>66884</v>
       </c>
       <c r="B53" t="n">
-        <v>134206</v>
+        <v>165076</v>
       </c>
       <c r="C53" t="s">
         <v>374</v>
@@ -6681,7 +6681,7 @@
         <v>66884</v>
       </c>
       <c r="B54" t="n">
-        <v>134207</v>
+        <v>165077</v>
       </c>
       <c r="C54" t="s">
         <v>381</v>
@@ -6799,7 +6799,7 @@
         <v>66884</v>
       </c>
       <c r="B56" t="n">
-        <v>134208</v>
+        <v>165078</v>
       </c>
       <c r="C56" t="s">
         <v>392</v>
@@ -6870,7 +6870,7 @@
         <v>66884</v>
       </c>
       <c r="B57" t="n">
-        <v>134209</v>
+        <v>165079</v>
       </c>
       <c r="C57" t="s">
         <v>398</v>
@@ -6927,7 +6927,7 @@
         <v>66884</v>
       </c>
       <c r="B58" t="n">
-        <v>134210</v>
+        <v>165080</v>
       </c>
       <c r="C58" t="s">
         <v>404</v>
@@ -7061,7 +7061,7 @@
         <v>66884</v>
       </c>
       <c r="B60" t="n">
-        <v>134211</v>
+        <v>165081</v>
       </c>
       <c r="C60" t="s">
         <v>417</v>
@@ -7128,7 +7128,7 @@
         <v>66884</v>
       </c>
       <c r="B61" t="n">
-        <v>134212</v>
+        <v>165082</v>
       </c>
       <c r="C61" t="s">
         <v>423</v>
@@ -7189,7 +7189,7 @@
         <v>66884</v>
       </c>
       <c r="B62" t="n">
-        <v>134213</v>
+        <v>165083</v>
       </c>
       <c r="C62" t="s">
         <v>428</v>
@@ -7254,7 +7254,7 @@
         <v>66884</v>
       </c>
       <c r="B63" t="n">
-        <v>134214</v>
+        <v>165084</v>
       </c>
       <c r="C63" t="s">
         <v>435</v>
@@ -7376,7 +7376,7 @@
         <v>66884</v>
       </c>
       <c r="B65" t="n">
-        <v>134215</v>
+        <v>165085</v>
       </c>
       <c r="C65" t="s">
         <v>449</v>
@@ -7441,7 +7441,7 @@
         <v>66884</v>
       </c>
       <c r="B66" t="n">
-        <v>134216</v>
+        <v>165086</v>
       </c>
       <c r="C66" t="s">
         <v>455</v>
@@ -7508,7 +7508,7 @@
         <v>66884</v>
       </c>
       <c r="B67" t="n">
-        <v>134217</v>
+        <v>165087</v>
       </c>
       <c r="C67" t="s">
         <v>462</v>
@@ -7577,7 +7577,7 @@
         <v>66884</v>
       </c>
       <c r="B68" t="n">
-        <v>134218</v>
+        <v>165088</v>
       </c>
       <c r="C68" t="s">
         <v>470</v>
@@ -7766,7 +7766,7 @@
         <v>66884</v>
       </c>
       <c r="B71" t="n">
-        <v>134219</v>
+        <v>165089</v>
       </c>
       <c r="C71" t="s">
         <v>490</v>
@@ -7969,7 +7969,7 @@
         <v>66884</v>
       </c>
       <c r="B74" t="n">
-        <v>134220</v>
+        <v>165090</v>
       </c>
       <c r="C74" t="s">
         <v>511</v>
@@ -8172,7 +8172,7 @@
         <v>66884</v>
       </c>
       <c r="B77" t="n">
-        <v>134221</v>
+        <v>165091</v>
       </c>
       <c r="C77" t="s">
         <v>530</v>
@@ -8243,7 +8243,7 @@
         <v>66884</v>
       </c>
       <c r="B78" t="n">
-        <v>134222</v>
+        <v>165092</v>
       </c>
       <c r="C78" t="s">
         <v>536</v>
@@ -8310,7 +8310,7 @@
         <v>66884</v>
       </c>
       <c r="B79" t="n">
-        <v>134223</v>
+        <v>165093</v>
       </c>
       <c r="C79" t="s">
         <v>541</v>
@@ -8381,7 +8381,7 @@
         <v>66884</v>
       </c>
       <c r="B80" t="n">
-        <v>134224</v>
+        <v>165094</v>
       </c>
       <c r="C80" t="s">
         <v>547</v>
@@ -8452,7 +8452,7 @@
         <v>66884</v>
       </c>
       <c r="B81" t="n">
-        <v>134225</v>
+        <v>165095</v>
       </c>
       <c r="C81" t="s">
         <v>553</v>
@@ -8523,7 +8523,7 @@
         <v>66884</v>
       </c>
       <c r="B82" t="n">
-        <v>134226</v>
+        <v>165096</v>
       </c>
       <c r="C82" t="s">
         <v>559</v>
@@ -8584,7 +8584,7 @@
         <v>66884</v>
       </c>
       <c r="B83" t="n">
-        <v>134227</v>
+        <v>165097</v>
       </c>
       <c r="C83" t="s">
         <v>564</v>
@@ -8712,7 +8712,7 @@
         <v>66884</v>
       </c>
       <c r="B85" t="n">
-        <v>134228</v>
+        <v>165098</v>
       </c>
       <c r="C85" t="s">
         <v>579</v>
@@ -8779,7 +8779,7 @@
         <v>66884</v>
       </c>
       <c r="B86" t="n">
-        <v>134229</v>
+        <v>165099</v>
       </c>
       <c r="C86" t="s">
         <v>586</v>
@@ -8972,7 +8972,7 @@
         <v>66884</v>
       </c>
       <c r="B89" t="n">
-        <v>134230</v>
+        <v>165100</v>
       </c>
       <c r="C89" t="s">
         <v>605</v>
@@ -9041,7 +9041,7 @@
         <v>66884</v>
       </c>
       <c r="B90" t="n">
-        <v>134231</v>
+        <v>165101</v>
       </c>
       <c r="C90" t="s">
         <v>611</v>
@@ -9116,7 +9116,7 @@
         <v>66884</v>
       </c>
       <c r="B91" t="n">
-        <v>134232</v>
+        <v>165102</v>
       </c>
       <c r="C91" t="s">
         <v>620</v>
@@ -9177,7 +9177,7 @@
         <v>66884</v>
       </c>
       <c r="B92" t="n">
-        <v>134233</v>
+        <v>165103</v>
       </c>
       <c r="C92" t="s">
         <v>627</v>
@@ -9238,7 +9238,7 @@
         <v>66884</v>
       </c>
       <c r="B93" t="n">
-        <v>134234</v>
+        <v>165104</v>
       </c>
       <c r="C93" t="s">
         <v>633</v>
@@ -9368,7 +9368,7 @@
         <v>66884</v>
       </c>
       <c r="B95" t="n">
-        <v>134235</v>
+        <v>165105</v>
       </c>
       <c r="C95" t="s">
         <v>648</v>
@@ -9437,7 +9437,7 @@
         <v>66884</v>
       </c>
       <c r="B96" t="n">
-        <v>134236</v>
+        <v>165106</v>
       </c>
       <c r="C96" t="s">
         <v>655</v>
@@ -9506,7 +9506,7 @@
         <v>66884</v>
       </c>
       <c r="B97" t="n">
-        <v>134237</v>
+        <v>165107</v>
       </c>
       <c r="C97" t="s">
         <v>665</v>
@@ -9581,7 +9581,7 @@
         <v>66884</v>
       </c>
       <c r="B98" t="n">
-        <v>134238</v>
+        <v>165108</v>
       </c>
       <c r="C98" t="s">
         <v>671</v>
@@ -9652,7 +9652,7 @@
         <v>66884</v>
       </c>
       <c r="B99" t="n">
-        <v>134239</v>
+        <v>165109</v>
       </c>
       <c r="C99" t="s">
         <v>677</v>
@@ -9723,7 +9723,7 @@
         <v>66884</v>
       </c>
       <c r="B100" t="n">
-        <v>134240</v>
+        <v>165110</v>
       </c>
       <c r="C100" t="s">
         <v>683</v>
@@ -9790,7 +9790,7 @@
         <v>66884</v>
       </c>
       <c r="B101" t="n">
-        <v>134241</v>
+        <v>165111</v>
       </c>
       <c r="C101" t="s">
         <v>690</v>
@@ -9861,7 +9861,7 @@
         <v>66884</v>
       </c>
       <c r="B102" t="n">
-        <v>134242</v>
+        <v>165112</v>
       </c>
       <c r="C102" t="s">
         <v>696</v>
@@ -9928,7 +9928,7 @@
         <v>66884</v>
       </c>
       <c r="B103" t="n">
-        <v>134243</v>
+        <v>165113</v>
       </c>
       <c r="C103" t="s">
         <v>702</v>
@@ -10003,7 +10003,7 @@
         <v>66884</v>
       </c>
       <c r="B104" t="n">
-        <v>134244</v>
+        <v>165114</v>
       </c>
       <c r="C104" t="s">
         <v>710</v>
@@ -10064,7 +10064,7 @@
         <v>66884</v>
       </c>
       <c r="B105" t="n">
-        <v>134245</v>
+        <v>165115</v>
       </c>
       <c r="C105" t="s">
         <v>717</v>
@@ -10139,7 +10139,7 @@
         <v>66884</v>
       </c>
       <c r="B106" t="n">
-        <v>134246</v>
+        <v>165116</v>
       </c>
       <c r="C106" t="s">
         <v>724</v>
@@ -10214,7 +10214,7 @@
         <v>66884</v>
       </c>
       <c r="B107" t="n">
-        <v>134247</v>
+        <v>165117</v>
       </c>
       <c r="C107" t="s">
         <v>731</v>
@@ -10283,7 +10283,7 @@
         <v>66884</v>
       </c>
       <c r="B108" t="n">
-        <v>134248</v>
+        <v>165118</v>
       </c>
       <c r="C108" t="s">
         <v>740</v>
@@ -10352,7 +10352,7 @@
         <v>66884</v>
       </c>
       <c r="B109" t="n">
-        <v>134249</v>
+        <v>165119</v>
       </c>
       <c r="C109" t="s">
         <v>747</v>
@@ -10699,7 +10699,7 @@
         <v>66884</v>
       </c>
       <c r="B114" t="n">
-        <v>134250</v>
+        <v>165120</v>
       </c>
       <c r="C114" t="s">
         <v>783</v>
@@ -10774,7 +10774,7 @@
         <v>66884</v>
       </c>
       <c r="B115" t="n">
-        <v>134251</v>
+        <v>165121</v>
       </c>
       <c r="C115" t="s">
         <v>792</v>
@@ -10843,7 +10843,7 @@
         <v>66884</v>
       </c>
       <c r="B116" t="n">
-        <v>134252</v>
+        <v>165122</v>
       </c>
       <c r="C116" t="s">
         <v>802</v>
@@ -10904,7 +10904,7 @@
         <v>66884</v>
       </c>
       <c r="B117" t="n">
-        <v>134253</v>
+        <v>165123</v>
       </c>
       <c r="C117" t="s">
         <v>809</v>
@@ -10975,7 +10975,7 @@
         <v>66884</v>
       </c>
       <c r="B118" t="n">
-        <v>134254</v>
+        <v>165124</v>
       </c>
       <c r="C118" t="s">
         <v>816</v>
@@ -11044,7 +11044,7 @@
         <v>66884</v>
       </c>
       <c r="B119" t="n">
-        <v>134255</v>
+        <v>165125</v>
       </c>
       <c r="C119" t="s">
         <v>823</v>
@@ -11111,7 +11111,7 @@
         <v>66884</v>
       </c>
       <c r="B120" t="n">
-        <v>134256</v>
+        <v>165126</v>
       </c>
       <c r="C120" t="s">
         <v>830</v>
@@ -11255,7 +11255,7 @@
         <v>66884</v>
       </c>
       <c r="B122" t="n">
-        <v>134257</v>
+        <v>165127</v>
       </c>
       <c r="C122" t="s">
         <v>843</v>
@@ -11324,7 +11324,7 @@
         <v>66884</v>
       </c>
       <c r="B123" t="n">
-        <v>134258</v>
+        <v>165128</v>
       </c>
       <c r="C123" t="s">
         <v>852</v>
@@ -11466,7 +11466,7 @@
         <v>66884</v>
       </c>
       <c r="B125" t="n">
-        <v>134259</v>
+        <v>165129</v>
       </c>
       <c r="C125" t="s">
         <v>866</v>
